--- a/Final_results/INSEE_noText_2020.xlsx
+++ b/Final_results/INSEE_noText_2020.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="397">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -853,13 +853,13 @@
 Do NOT use any information published after 09 August 2020.</t>
   </si>
   <si>
-    <t xml:space="preserve">+16.0 (55)</t>
+    <t xml:space="preserve">+18.0 (60)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+17.0 (65)</t>
   </si>
   <si>
     <t xml:space="preserve">+16.0 (60)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+16.0 (50)</t>
   </si>
   <si>
     <t xml:space="preserve">2020-09-08</t>
@@ -880,9 +880,6 @@
     <t xml:space="preserve">+17.0 (80)</t>
   </si>
   <si>
-    <t xml:space="preserve">+17.0 (65)</t>
-  </si>
-  <si>
     <t xml:space="preserve">2020-10-07</t>
   </si>
   <si>
@@ -895,9 +892,6 @@
     <t xml:space="preserve">+16.0 (90)</t>
   </si>
   <si>
-    <t xml:space="preserve">+16.0 (85)</t>
-  </si>
-  <si>
     <t xml:space="preserve">2020-11-08</t>
   </si>
   <si>
@@ -907,29 +901,24 @@
 Do NOT use any information published after 08 November 2020.</t>
   </si>
   <si>
-    <t xml:space="preserve">-3.0 (40)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-4.2 (35)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-4.5 (35)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-4.2 (60)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-5.5 (50)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-4.0 (50)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-4.0 (40)</t>
+    <t xml:space="preserve">-6.0 (40)</t>
   </si>
   <si>
     <t xml:space="preserve">
--4.0 (40)</t>
+-6.0 (40)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4.5 (40)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.5 (50)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+-4.8 (50)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4.8 (50)</t>
   </si>
   <si>
     <t xml:space="preserve">2020-12-13</t>
@@ -941,16 +930,17 @@
 Do NOT use any information published after 13 December 2020.</t>
   </si>
   <si>
-    <t xml:space="preserve">-4.5 (70)</t>
+    <t xml:space="preserve">-4.0 (80)</t>
   </si>
   <si>
     <t xml:space="preserve">-2.5 (70)</t>
   </si>
   <si>
+    <t xml:space="preserve">
+-2.7 (75)</t>
+  </si>
+  <si>
     <t xml:space="preserve">-2.5 (75)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-4.0 (70)</t>
   </si>
   <si>
     <t xml:space="preserve">2021-01-12</t>
@@ -7830,91 +7820,91 @@
         <v>0.2</v>
       </c>
       <c r="D61" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="E61" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F61" t="n">
         <v>0.2</v>
       </c>
       <c r="G61" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="H61" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I61" t="n">
         <v>0.2</v>
       </c>
       <c r="J61" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="K61" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L61" t="n">
         <v>0.2</v>
       </c>
       <c r="M61" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="N61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O61" t="n">
         <v>0.2</v>
       </c>
       <c r="P61" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Q61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R61" t="n">
         <v>0.2</v>
       </c>
       <c r="S61" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="T61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U61" t="n">
         <v>0.2</v>
       </c>
       <c r="V61" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="W61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="X61" t="n">
         <v>0.2</v>
       </c>
       <c r="Y61" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="Z61" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="AA61" t="n">
         <v>0.2</v>
       </c>
       <c r="AB61" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AC61" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="AD61" t="n">
         <v>0.2</v>
       </c>
       <c r="AE61" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AF61" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="62">
@@ -8513,46 +8503,46 @@
         <v>211</v>
       </c>
       <c r="C68" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D68" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E68" t="s">
         <v>212</v>
       </c>
       <c r="F68" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G68" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H68" t="s">
         <v>212</v>
       </c>
       <c r="I68" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J68" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="K68" t="s">
         <v>212</v>
       </c>
       <c r="L68" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M68" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="N68" t="s">
         <v>213</v>
       </c>
       <c r="O68" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P68" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="Q68" t="s">
         <v>213</v>
@@ -8561,7 +8551,7 @@
         <v>16</v>
       </c>
       <c r="S68" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="T68" t="s">
         <v>214</v>
@@ -8570,7 +8560,7 @@
         <v>16</v>
       </c>
       <c r="V68" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="W68" t="s">
         <v>214</v>
@@ -8579,28 +8569,28 @@
         <v>16</v>
       </c>
       <c r="Y68" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="Z68" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AA68" t="n">
         <v>16</v>
       </c>
       <c r="AB68" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AC68" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AD68" t="n">
         <v>16</v>
       </c>
       <c r="AE68" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AF68" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="69">
@@ -8680,7 +8670,7 @@
         <v>65</v>
       </c>
       <c r="Z69" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="AA69" t="n">
         <v>17</v>
@@ -8689,7 +8679,7 @@
         <v>65</v>
       </c>
       <c r="AC69" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="AD69" t="n">
         <v>17</v>
@@ -8698,15 +8688,15 @@
         <v>65</v>
       </c>
       <c r="AF69" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
+        <v>220</v>
+      </c>
+      <c r="B70" t="s">
         <v>221</v>
-      </c>
-      <c r="B70" t="s">
-        <v>222</v>
       </c>
       <c r="C70" t="n">
         <v>16</v>
@@ -8715,7 +8705,7 @@
         <v>90</v>
       </c>
       <c r="E70" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F70" t="n">
         <v>16</v>
@@ -8724,7 +8714,7 @@
         <v>90</v>
       </c>
       <c r="H70" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I70" t="n">
         <v>16</v>
@@ -8733,25 +8723,25 @@
         <v>90</v>
       </c>
       <c r="K70" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L70" t="n">
         <v>16</v>
       </c>
       <c r="M70" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="N70" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="O70" t="n">
         <v>16</v>
       </c>
       <c r="P70" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Q70" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="R70" t="n">
         <v>16</v>
@@ -8760,7 +8750,7 @@
         <v>90</v>
       </c>
       <c r="T70" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="U70" t="n">
         <v>16</v>
@@ -8769,238 +8759,238 @@
         <v>90</v>
       </c>
       <c r="W70" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="X70" t="n">
         <v>16</v>
       </c>
       <c r="Y70" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Z70" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AA70" t="n">
         <v>16</v>
       </c>
       <c r="AB70" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AC70" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AD70" t="n">
         <v>16</v>
       </c>
       <c r="AE70" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AF70" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B71" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C71" t="n">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="D71" t="n">
         <v>40</v>
       </c>
       <c r="E71" t="s">
+        <v>225</v>
+      </c>
+      <c r="F71" t="n">
+        <v>-6</v>
+      </c>
+      <c r="G71" t="n">
+        <v>40</v>
+      </c>
+      <c r="H71" t="s">
+        <v>226</v>
+      </c>
+      <c r="I71" t="n">
+        <v>-6</v>
+      </c>
+      <c r="J71" t="n">
+        <v>40</v>
+      </c>
+      <c r="K71" t="s">
+        <v>225</v>
+      </c>
+      <c r="L71" t="n">
+        <v>-4.5</v>
+      </c>
+      <c r="M71" t="n">
+        <v>40</v>
+      </c>
+      <c r="N71" t="s">
         <v>227</v>
       </c>
-      <c r="F71" t="n">
-        <v>-4.2</v>
-      </c>
-      <c r="G71" t="n">
-        <v>35</v>
-      </c>
-      <c r="H71" t="s">
-        <v>228</v>
-      </c>
-      <c r="I71" t="n">
+      <c r="O71" t="n">
         <v>-4.5</v>
       </c>
-      <c r="J71" t="n">
-        <v>35</v>
-      </c>
-      <c r="K71" t="s">
-        <v>229</v>
-      </c>
-      <c r="L71" t="n">
-        <v>-4.2</v>
-      </c>
-      <c r="M71" t="n">
-        <v>60</v>
-      </c>
-      <c r="N71" t="s">
-        <v>230</v>
-      </c>
-      <c r="O71" t="n">
-        <v>-4.2</v>
-      </c>
       <c r="P71" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="Q71" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="R71" t="n">
-        <v>-5.5</v>
+        <v>-2.5</v>
       </c>
       <c r="S71" t="n">
         <v>50</v>
       </c>
       <c r="T71" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="U71" t="n">
-        <v>-4</v>
+        <v>-2.5</v>
       </c>
       <c r="V71" t="n">
         <v>50</v>
       </c>
       <c r="W71" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="X71" t="n">
-        <v>-4</v>
+        <v>-4.8</v>
       </c>
       <c r="Y71" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="Z71" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="AA71" t="n">
-        <v>-4</v>
+        <v>-4.8</v>
       </c>
       <c r="AB71" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AC71" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="AD71" t="n">
-        <v>-4</v>
+        <v>-4.8</v>
       </c>
       <c r="AE71" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AF71" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B72" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C72" t="n">
-        <v>-4.5</v>
+        <v>-4</v>
       </c>
       <c r="D72" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E72" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.5</v>
+        <v>-4</v>
       </c>
       <c r="G72" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H72" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="I72" t="n">
-        <v>-2.5</v>
+        <v>-4</v>
       </c>
       <c r="J72" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="K72" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="L72" t="n">
         <v>-2.5</v>
       </c>
       <c r="M72" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="N72" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="O72" t="n">
+        <v>-2.7</v>
+      </c>
+      <c r="P72" t="n">
+        <v>75</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>235</v>
+      </c>
+      <c r="R72" t="n">
         <v>-2.5</v>
       </c>
-      <c r="P72" t="n">
-        <v>75</v>
-      </c>
-      <c r="Q72" t="s">
-        <v>239</v>
-      </c>
-      <c r="R72" t="n">
-        <v>-4</v>
-      </c>
       <c r="S72" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="T72" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="U72" t="n">
-        <v>-4</v>
+        <v>-2.5</v>
       </c>
       <c r="V72" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="W72" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="X72" t="n">
         <v>-2.5</v>
       </c>
       <c r="Y72" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="Z72" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AA72" t="n">
-        <v>-4</v>
+        <v>-2.5</v>
       </c>
       <c r="AB72" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AC72" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="AD72" t="n">
-        <v>-4</v>
+        <v>-2.5</v>
       </c>
       <c r="AE72" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AF72" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B73" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C73" t="n">
         <v>-4</v>
@@ -9009,7 +8999,7 @@
         <v>85</v>
       </c>
       <c r="E73" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F73" t="n">
         <v>-4</v>
@@ -9018,7 +9008,7 @@
         <v>85</v>
       </c>
       <c r="H73" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="I73" t="n">
         <v>-4</v>
@@ -9027,7 +9017,7 @@
         <v>85</v>
       </c>
       <c r="K73" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="L73" t="n">
         <v>-4</v>
@@ -9036,7 +9026,7 @@
         <v>85</v>
       </c>
       <c r="N73" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="O73" t="n">
         <v>-4</v>
@@ -9045,7 +9035,7 @@
         <v>85</v>
       </c>
       <c r="Q73" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="R73" t="n">
         <v>-4</v>
@@ -9054,7 +9044,7 @@
         <v>60</v>
       </c>
       <c r="T73" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="U73" t="n">
         <v>-4</v>
@@ -9063,7 +9053,7 @@
         <v>60</v>
       </c>
       <c r="W73" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="X73" t="n">
         <v>-4</v>
@@ -9072,7 +9062,7 @@
         <v>75</v>
       </c>
       <c r="Z73" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="AA73" t="n">
         <v>-4</v>
@@ -9081,7 +9071,7 @@
         <v>75</v>
       </c>
       <c r="AC73" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="AD73" t="n">
         <v>-4</v>
@@ -9090,15 +9080,15 @@
         <v>75</v>
       </c>
       <c r="AF73" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B74" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
@@ -9107,7 +9097,7 @@
         <v>40</v>
       </c>
       <c r="E74" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F74" t="n">
         <v>0</v>
@@ -9116,7 +9106,7 @@
         <v>40</v>
       </c>
       <c r="H74" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -9125,7 +9115,7 @@
         <v>40</v>
       </c>
       <c r="K74" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="L74" t="n">
         <v>0.1</v>
@@ -9152,7 +9142,7 @@
         <v>40</v>
       </c>
       <c r="T74" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="U74" t="n">
         <v>0</v>
@@ -9161,7 +9151,7 @@
         <v>40</v>
       </c>
       <c r="W74" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="X74" t="n">
         <v>-0.1</v>
@@ -9193,10 +9183,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B75" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C75" t="n">
         <v>0.1</v>
@@ -9232,7 +9222,7 @@
         <v>45</v>
       </c>
       <c r="N75" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="O75" t="n">
         <v>0.1</v>
@@ -9241,7 +9231,7 @@
         <v>45</v>
       </c>
       <c r="Q75" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="R75" t="n">
         <v>0.1</v>
@@ -9291,10 +9281,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B76" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C76" t="n">
         <v>0.3</v>
@@ -9312,7 +9302,7 @@
         <v>65</v>
       </c>
       <c r="H76" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="I76" t="n">
         <v>0.4</v>
@@ -9321,7 +9311,7 @@
         <v>65</v>
       </c>
       <c r="K76" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="L76" t="n">
         <v>0.4</v>
@@ -9330,7 +9320,7 @@
         <v>65</v>
       </c>
       <c r="N76" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="O76" t="n">
         <v>0.1</v>
@@ -9339,7 +9329,7 @@
         <v>70</v>
       </c>
       <c r="Q76" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="R76" t="n">
         <v>0.1</v>
@@ -9389,10 +9379,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B77" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C77" t="n">
         <v>0.5</v>
@@ -9401,7 +9391,7 @@
         <v>60</v>
       </c>
       <c r="E77" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F77" t="n">
         <v>0.5</v>
@@ -9410,7 +9400,7 @@
         <v>60</v>
       </c>
       <c r="H77" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="I77" t="n">
         <v>0.5</v>
@@ -9419,7 +9409,7 @@
         <v>60</v>
       </c>
       <c r="K77" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="L77" t="n">
         <v>0.5</v>
@@ -9428,7 +9418,7 @@
         <v>65</v>
       </c>
       <c r="N77" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="O77" t="n">
         <v>0.5</v>
@@ -9437,7 +9427,7 @@
         <v>65</v>
       </c>
       <c r="Q77" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="R77" t="n">
         <v>0.5</v>
@@ -9446,7 +9436,7 @@
         <v>70</v>
       </c>
       <c r="T77" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="U77" t="n">
         <v>0.5</v>
@@ -9455,7 +9445,7 @@
         <v>70</v>
       </c>
       <c r="W77" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="X77" t="n">
         <v>0</v>
@@ -9464,7 +9454,7 @@
         <v>50</v>
       </c>
       <c r="Z77" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="AA77" t="n">
         <v>0</v>
@@ -9473,7 +9463,7 @@
         <v>50</v>
       </c>
       <c r="AC77" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="AD77" t="n">
         <v>0</v>
@@ -9482,15 +9472,15 @@
         <v>50</v>
       </c>
       <c r="AF77" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B78" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C78" t="n">
         <v>0.8</v>
@@ -9499,7 +9489,7 @@
         <v>85</v>
       </c>
       <c r="E78" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F78" t="n">
         <v>0.8</v>
@@ -9508,7 +9498,7 @@
         <v>85</v>
       </c>
       <c r="H78" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="I78" t="n">
         <v>0.8</v>
@@ -9517,7 +9507,7 @@
         <v>85</v>
       </c>
       <c r="K78" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="L78" t="n">
         <v>0.8</v>
@@ -9526,7 +9516,7 @@
         <v>85</v>
       </c>
       <c r="N78" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="O78" t="n">
         <v>0.8</v>
@@ -9535,7 +9525,7 @@
         <v>85</v>
       </c>
       <c r="Q78" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="R78" t="n">
         <v>0.8</v>
@@ -9544,7 +9534,7 @@
         <v>85</v>
       </c>
       <c r="T78" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="U78" t="n">
         <v>0.8</v>
@@ -9553,7 +9543,7 @@
         <v>85</v>
       </c>
       <c r="W78" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="X78" t="n">
         <v>0.5</v>
@@ -9571,7 +9561,7 @@
         <v>85</v>
       </c>
       <c r="AC78" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="AD78" t="n">
         <v>0.8</v>
@@ -9580,15 +9570,15 @@
         <v>85</v>
       </c>
       <c r="AF78" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B79" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C79" t="n">
         <v>0.8</v>
@@ -9597,7 +9587,7 @@
         <v>85</v>
       </c>
       <c r="E79" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F79" t="n">
         <v>0.8</v>
@@ -9606,7 +9596,7 @@
         <v>85</v>
       </c>
       <c r="H79" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="I79" t="n">
         <v>0.8</v>
@@ -9615,7 +9605,7 @@
         <v>85</v>
       </c>
       <c r="K79" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="L79" t="n">
         <v>0.7</v>
@@ -9624,7 +9614,7 @@
         <v>80</v>
       </c>
       <c r="N79" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="O79" t="n">
         <v>0.7</v>
@@ -9633,7 +9623,7 @@
         <v>80</v>
       </c>
       <c r="Q79" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="R79" t="n">
         <v>0.7</v>
@@ -9642,7 +9632,7 @@
         <v>85</v>
       </c>
       <c r="T79" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="U79" t="n">
         <v>0.7</v>
@@ -9651,7 +9641,7 @@
         <v>85</v>
       </c>
       <c r="W79" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="X79" t="n">
         <v>0.8</v>
@@ -9660,7 +9650,7 @@
         <v>85</v>
       </c>
       <c r="Z79" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="AA79" t="n">
         <v>0.8</v>
@@ -9669,7 +9659,7 @@
         <v>85</v>
       </c>
       <c r="AC79" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="AD79" t="n">
         <v>0.8</v>
@@ -9678,15 +9668,15 @@
         <v>85</v>
       </c>
       <c r="AF79" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B80" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C80" t="n">
         <v>3.1</v>
@@ -9695,7 +9685,7 @@
         <v>70</v>
       </c>
       <c r="E80" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F80" t="n">
         <v>3.1</v>
@@ -9704,7 +9694,7 @@
         <v>70</v>
       </c>
       <c r="H80" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="I80" t="n">
         <v>3.1</v>
@@ -9713,7 +9703,7 @@
         <v>70</v>
       </c>
       <c r="K80" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="L80" t="n">
         <v>2.5</v>
@@ -9722,7 +9712,7 @@
         <v>70</v>
       </c>
       <c r="N80" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="O80" t="n">
         <v>2.3</v>
@@ -9731,7 +9721,7 @@
         <v>75</v>
       </c>
       <c r="Q80" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="R80" t="n">
         <v>2.9</v>
@@ -9740,7 +9730,7 @@
         <v>80</v>
       </c>
       <c r="T80" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="U80" t="n">
         <v>2.9</v>
@@ -9749,7 +9739,7 @@
         <v>80</v>
       </c>
       <c r="W80" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="X80" t="n">
         <v>2.5</v>
@@ -9758,7 +9748,7 @@
         <v>65</v>
       </c>
       <c r="Z80" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="AA80" t="n">
         <v>2.7</v>
@@ -9767,7 +9757,7 @@
         <v>65</v>
       </c>
       <c r="AC80" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="AD80" t="n">
         <v>2.7</v>
@@ -9776,15 +9766,15 @@
         <v>65</v>
       </c>
       <c r="AF80" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B81" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C81" t="n">
         <v>2.7</v>
@@ -9793,7 +9783,7 @@
         <v>85</v>
       </c>
       <c r="E81" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F81" t="n">
         <v>2.7</v>
@@ -9802,7 +9792,7 @@
         <v>85</v>
       </c>
       <c r="H81" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="I81" t="n">
         <v>2.7</v>
@@ -9811,7 +9801,7 @@
         <v>85</v>
       </c>
       <c r="K81" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="L81" t="n">
         <v>2.7</v>
@@ -9820,7 +9810,7 @@
         <v>85</v>
       </c>
       <c r="N81" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="O81" t="n">
         <v>2.7</v>
@@ -9829,7 +9819,7 @@
         <v>85</v>
       </c>
       <c r="Q81" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="R81" t="n">
         <v>2.7</v>
@@ -9838,7 +9828,7 @@
         <v>90</v>
       </c>
       <c r="T81" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="U81" t="n">
         <v>2.7</v>
@@ -9847,7 +9837,7 @@
         <v>90</v>
       </c>
       <c r="W81" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="X81" t="n">
         <v>2.7</v>
@@ -9856,7 +9846,7 @@
         <v>85</v>
       </c>
       <c r="Z81" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="AA81" t="n">
         <v>2.7</v>
@@ -9865,7 +9855,7 @@
         <v>85</v>
       </c>
       <c r="AC81" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="AD81" t="n">
         <v>2.7</v>
@@ -9874,15 +9864,15 @@
         <v>85</v>
       </c>
       <c r="AF81" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B82" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C82" t="n">
         <v>2.7</v>
@@ -9891,7 +9881,7 @@
         <v>90</v>
       </c>
       <c r="E82" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F82" t="n">
         <v>2.7</v>
@@ -9900,7 +9890,7 @@
         <v>90</v>
       </c>
       <c r="H82" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="I82" t="n">
         <v>2.7</v>
@@ -9909,7 +9899,7 @@
         <v>90</v>
       </c>
       <c r="K82" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="L82" t="n">
         <v>2.7</v>
@@ -9918,7 +9908,7 @@
         <v>90</v>
       </c>
       <c r="N82" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="O82" t="n">
         <v>2.7</v>
@@ -9927,7 +9917,7 @@
         <v>90</v>
       </c>
       <c r="Q82" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="R82" t="n">
         <v>2.7</v>
@@ -9936,7 +9926,7 @@
         <v>85</v>
       </c>
       <c r="T82" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="U82" t="n">
         <v>2.7</v>
@@ -9945,7 +9935,7 @@
         <v>85</v>
       </c>
       <c r="W82" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="X82" t="n">
         <v>2.5</v>
@@ -9954,7 +9944,7 @@
         <v>85</v>
       </c>
       <c r="Z82" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="AA82" t="n">
         <v>2.5</v>
@@ -9963,7 +9953,7 @@
         <v>85</v>
       </c>
       <c r="AC82" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="AD82" t="n">
         <v>2.5</v>
@@ -9972,15 +9962,15 @@
         <v>85</v>
       </c>
       <c r="AF82" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B83" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C83" t="n">
         <v>0.5</v>
@@ -10052,7 +10042,7 @@
         <v>70</v>
       </c>
       <c r="Z83" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="AA83" t="n">
         <v>0.5</v>
@@ -10061,7 +10051,7 @@
         <v>70</v>
       </c>
       <c r="AC83" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="AD83" t="n">
         <v>0.5</v>
@@ -10070,15 +10060,15 @@
         <v>70</v>
       </c>
       <c r="AF83" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B84" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C84" t="n">
         <v>0.7</v>
@@ -10087,7 +10077,7 @@
         <v>70</v>
       </c>
       <c r="E84" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F84" t="n">
         <v>0.7</v>
@@ -10096,7 +10086,7 @@
         <v>70</v>
       </c>
       <c r="H84" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="I84" t="n">
         <v>0.7</v>
@@ -10105,7 +10095,7 @@
         <v>70</v>
       </c>
       <c r="K84" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="L84" t="n">
         <v>0.5</v>
@@ -10114,7 +10104,7 @@
         <v>65</v>
       </c>
       <c r="N84" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="O84" t="n">
         <v>0.5</v>
@@ -10123,7 +10113,7 @@
         <v>65</v>
       </c>
       <c r="Q84" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="R84" t="n">
         <v>0.5</v>
@@ -10132,7 +10122,7 @@
         <v>65</v>
       </c>
       <c r="T84" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="U84" t="n">
         <v>0.5</v>
@@ -10141,7 +10131,7 @@
         <v>65</v>
       </c>
       <c r="W84" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="X84" t="n">
         <v>0.4</v>
@@ -10173,10 +10163,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B85" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C85" t="n">
         <v>0.3</v>
@@ -10271,10 +10261,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B86" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C86" t="n">
         <v>0.3</v>
@@ -10369,10 +10359,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B87" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C87" t="n">
         <v>0.3</v>
@@ -10381,7 +10371,7 @@
         <v>50</v>
       </c>
       <c r="E87" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F87" t="n">
         <v>0.3</v>
@@ -10390,7 +10380,7 @@
         <v>50</v>
       </c>
       <c r="H87" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="I87" t="n">
         <v>0.3</v>
@@ -10399,7 +10389,7 @@
         <v>50</v>
       </c>
       <c r="K87" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="L87" t="n">
         <v>0.3</v>
@@ -10426,7 +10416,7 @@
         <v>50</v>
       </c>
       <c r="T87" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="U87" t="n">
         <v>0.3</v>
@@ -10435,7 +10425,7 @@
         <v>50</v>
       </c>
       <c r="W87" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="X87" t="n">
         <v>0</v>
@@ -10444,7 +10434,7 @@
         <v>40</v>
       </c>
       <c r="Z87" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="AA87" t="n">
         <v>0</v>
@@ -10453,7 +10443,7 @@
         <v>40</v>
       </c>
       <c r="AC87" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="AD87" t="n">
         <v>0</v>
@@ -10462,15 +10452,15 @@
         <v>40</v>
       </c>
       <c r="AF87" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B88" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C88" t="n">
         <v>0.3</v>
@@ -10524,7 +10514,7 @@
         <v>50</v>
       </c>
       <c r="T88" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="U88" t="n">
         <v>0.3</v>
@@ -10533,7 +10523,7 @@
         <v>50</v>
       </c>
       <c r="W88" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="X88" t="n">
         <v>0.3</v>
@@ -10565,10 +10555,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B89" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C89" t="n">
         <v>0.2</v>
@@ -10577,7 +10567,7 @@
         <v>50</v>
       </c>
       <c r="E89" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F89" t="n">
         <v>0.2</v>
@@ -10586,7 +10576,7 @@
         <v>50</v>
       </c>
       <c r="H89" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="I89" t="n">
         <v>0.2</v>
@@ -10595,7 +10585,7 @@
         <v>50</v>
       </c>
       <c r="K89" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="L89" t="n">
         <v>0.3</v>
@@ -10622,7 +10612,7 @@
         <v>50</v>
       </c>
       <c r="T89" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="U89" t="n">
         <v>0.3</v>
@@ -10631,7 +10621,7 @@
         <v>50</v>
       </c>
       <c r="W89" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="X89" t="n">
         <v>0.3</v>
@@ -10663,10 +10653,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B90" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C90" t="n">
         <v>0.2</v>
@@ -10761,10 +10751,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B91" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C91" t="n">
         <v>0.3</v>
@@ -10859,10 +10849,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B92" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C92" t="n">
         <v>0.2</v>
@@ -10898,7 +10888,7 @@
         <v>50</v>
       </c>
       <c r="N92" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="O92" t="n">
         <v>0</v>
@@ -10907,7 +10897,7 @@
         <v>50</v>
       </c>
       <c r="Q92" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="R92" t="n">
         <v>0.2</v>
@@ -10957,10 +10947,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B93" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C93" t="n">
         <v>0.2</v>
@@ -11055,10 +11045,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B94" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C94" t="n">
         <v>0.3</v>
@@ -11094,7 +11084,7 @@
         <v>85</v>
       </c>
       <c r="N94" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="O94" t="n">
         <v>0.2</v>
@@ -11103,7 +11093,7 @@
         <v>85</v>
       </c>
       <c r="Q94" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="R94" t="n">
         <v>0.2</v>
@@ -11112,7 +11102,7 @@
         <v>85</v>
       </c>
       <c r="T94" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="U94" t="n">
         <v>0.2</v>
@@ -11121,7 +11111,7 @@
         <v>85</v>
       </c>
       <c r="W94" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="X94" t="n">
         <v>0.2</v>
@@ -11153,10 +11143,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B95" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C95" t="n">
         <v>-0.1</v>
@@ -11165,7 +11155,7 @@
         <v>65</v>
       </c>
       <c r="E95" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F95" t="n">
         <v>-0.1</v>
@@ -11174,7 +11164,7 @@
         <v>65</v>
       </c>
       <c r="H95" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="I95" t="n">
         <v>-0.1</v>
@@ -11183,7 +11173,7 @@
         <v>65</v>
       </c>
       <c r="K95" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="L95" t="n">
         <v>0</v>
@@ -11210,7 +11200,7 @@
         <v>65</v>
       </c>
       <c r="T95" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="U95" t="n">
         <v>-0.2</v>
@@ -11219,7 +11209,7 @@
         <v>65</v>
       </c>
       <c r="W95" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="X95" t="n">
         <v>-0.1</v>
@@ -11228,7 +11218,7 @@
         <v>65</v>
       </c>
       <c r="Z95" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="AA95" t="n">
         <v>-0.1</v>
@@ -11237,7 +11227,7 @@
         <v>65</v>
       </c>
       <c r="AC95" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="AD95" t="n">
         <v>-0.1</v>
@@ -11246,15 +11236,15 @@
         <v>65</v>
       </c>
       <c r="AF95" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B96" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C96" t="n">
         <v>-0.2</v>
@@ -11263,7 +11253,7 @@
         <v>65</v>
       </c>
       <c r="E96" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F96" t="n">
         <v>-0.2</v>
@@ -11272,7 +11262,7 @@
         <v>65</v>
       </c>
       <c r="H96" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="I96" t="n">
         <v>-0.2</v>
@@ -11281,7 +11271,7 @@
         <v>65</v>
       </c>
       <c r="K96" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="L96" t="n">
         <v>-0.1</v>
@@ -11290,7 +11280,7 @@
         <v>65</v>
       </c>
       <c r="N96" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="O96" t="n">
         <v>-0.1</v>
@@ -11299,7 +11289,7 @@
         <v>65</v>
       </c>
       <c r="Q96" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="R96" t="n">
         <v>-0.1</v>
@@ -11308,7 +11298,7 @@
         <v>65</v>
       </c>
       <c r="T96" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="U96" t="n">
         <v>-0.1</v>
@@ -11317,7 +11307,7 @@
         <v>65</v>
       </c>
       <c r="W96" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="X96" t="n">
         <v>-0.1</v>
@@ -11326,7 +11316,7 @@
         <v>60</v>
       </c>
       <c r="Z96" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="AA96" t="n">
         <v>-0.1</v>
@@ -11335,7 +11325,7 @@
         <v>60</v>
       </c>
       <c r="AC96" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="AD96" t="n">
         <v>-0.1</v>
@@ -11344,15 +11334,15 @@
         <v>60</v>
       </c>
       <c r="AF96" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B97" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C97" t="n">
         <v>-0.2</v>
@@ -11361,7 +11351,7 @@
         <v>75</v>
       </c>
       <c r="E97" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="F97" t="n">
         <v>-0.2</v>
@@ -11370,7 +11360,7 @@
         <v>75</v>
       </c>
       <c r="H97" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="I97" t="n">
         <v>-0.2</v>
@@ -11379,7 +11369,7 @@
         <v>75</v>
       </c>
       <c r="K97" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="L97" t="n">
         <v>0.1</v>
@@ -11388,7 +11378,7 @@
         <v>70</v>
       </c>
       <c r="N97" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="O97" t="n">
         <v>0.1</v>
@@ -11397,7 +11387,7 @@
         <v>70</v>
       </c>
       <c r="Q97" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="R97" t="n">
         <v>-0.1</v>
@@ -11406,7 +11396,7 @@
         <v>60</v>
       </c>
       <c r="T97" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="U97" t="n">
         <v>-0.1</v>
@@ -11415,17 +11405,17 @@
         <v>60</v>
       </c>
       <c r="W97" t="s">
+        <v>315</v>
+      </c>
+      <c r="X97" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>75</v>
+      </c>
+      <c r="Z97" t="s">
         <v>319</v>
       </c>
-      <c r="X97" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y97" t="n">
-        <v>75</v>
-      </c>
-      <c r="Z97" t="s">
-        <v>323</v>
-      </c>
       <c r="AA97" t="n">
         <v>0.1</v>
       </c>
@@ -11433,7 +11423,7 @@
         <v>75</v>
       </c>
       <c r="AC97" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="AD97" t="n">
         <v>0.1</v>
@@ -11442,15 +11432,15 @@
         <v>75</v>
       </c>
       <c r="AF97" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B98" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C98" t="n">
         <v>0.1</v>
@@ -11545,10 +11535,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B99" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C99" t="n">
         <v>0.2</v>
@@ -11643,10 +11633,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B100" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C100" t="n">
         <v>0.2</v>
@@ -11741,10 +11731,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B101" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C101" t="n">
         <v>0.1</v>
@@ -11839,10 +11829,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B102" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C102" t="n">
         <v>0.1</v>
@@ -11851,7 +11841,7 @@
         <v>70</v>
       </c>
       <c r="E102" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="F102" t="n">
         <v>0.1</v>
@@ -11860,7 +11850,7 @@
         <v>70</v>
       </c>
       <c r="H102" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I102" t="n">
         <v>0.1</v>
@@ -11869,7 +11859,7 @@
         <v>70</v>
       </c>
       <c r="K102" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="L102" t="n">
         <v>0.1</v>
@@ -11878,7 +11868,7 @@
         <v>70</v>
       </c>
       <c r="N102" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="O102" t="n">
         <v>0.1</v>
@@ -11887,7 +11877,7 @@
         <v>70</v>
       </c>
       <c r="Q102" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="R102" t="n">
         <v>0.2</v>
@@ -11914,7 +11904,7 @@
         <v>75</v>
       </c>
       <c r="Z102" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="AA102" t="n">
         <v>0.1</v>
@@ -11923,7 +11913,7 @@
         <v>75</v>
       </c>
       <c r="AC102" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="AD102" t="n">
         <v>0.1</v>
@@ -11932,15 +11922,15 @@
         <v>75</v>
       </c>
       <c r="AF102" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B103" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C103" t="n">
         <v>0.1</v>
@@ -11949,7 +11939,7 @@
         <v>80</v>
       </c>
       <c r="E103" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="F103" t="n">
         <v>0.1</v>
@@ -11958,7 +11948,7 @@
         <v>80</v>
       </c>
       <c r="H103" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="I103" t="n">
         <v>0.1</v>
@@ -11967,7 +11957,7 @@
         <v>80</v>
       </c>
       <c r="K103" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="L103" t="n">
         <v>0.1</v>
@@ -11976,7 +11966,7 @@
         <v>70</v>
       </c>
       <c r="N103" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="O103" t="n">
         <v>0.1</v>
@@ -11985,7 +11975,7 @@
         <v>70</v>
       </c>
       <c r="Q103" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="R103" t="n">
         <v>0.1</v>
@@ -11994,7 +11984,7 @@
         <v>75</v>
       </c>
       <c r="T103" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="U103" t="n">
         <v>0.1</v>
@@ -12003,7 +11993,7 @@
         <v>75</v>
       </c>
       <c r="W103" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="X103" t="n">
         <v>0.1</v>
@@ -12012,7 +12002,7 @@
         <v>75</v>
       </c>
       <c r="Z103" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="AA103" t="n">
         <v>0.1</v>
@@ -12021,7 +12011,7 @@
         <v>75</v>
       </c>
       <c r="AC103" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="AD103" t="n">
         <v>0.1</v>
@@ -12030,15 +12020,15 @@
         <v>75</v>
       </c>
       <c r="AF103" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B104" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C104" t="n">
         <v>0.1</v>
@@ -12133,10 +12123,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B105" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C105" t="n">
         <v>0.1</v>
@@ -12145,7 +12135,7 @@
         <v>80</v>
       </c>
       <c r="E105" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="F105" t="n">
         <v>0.1</v>
@@ -12154,7 +12144,7 @@
         <v>80</v>
       </c>
       <c r="H105" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="I105" t="n">
         <v>0.1</v>
@@ -12163,7 +12153,7 @@
         <v>80</v>
       </c>
       <c r="K105" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="L105" t="n">
         <v>0.1</v>
@@ -12172,7 +12162,7 @@
         <v>80</v>
       </c>
       <c r="N105" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="O105" t="n">
         <v>0.1</v>
@@ -12181,7 +12171,7 @@
         <v>80</v>
       </c>
       <c r="Q105" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="R105" t="n">
         <v>0.1</v>
@@ -12208,7 +12198,7 @@
         <v>75</v>
       </c>
       <c r="Z105" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="AA105" t="n">
         <v>0.1</v>
@@ -12217,7 +12207,7 @@
         <v>75</v>
       </c>
       <c r="AC105" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="AD105" t="n">
         <v>0.1</v>
@@ -12226,15 +12216,15 @@
         <v>75</v>
       </c>
       <c r="AF105" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B106" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C106" t="n">
         <v>0.1</v>
@@ -12270,7 +12260,7 @@
         <v>85</v>
       </c>
       <c r="N106" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="O106" t="n">
         <v>0.1</v>
@@ -12279,7 +12269,7 @@
         <v>85</v>
       </c>
       <c r="Q106" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="R106" t="n">
         <v>0.1</v>
@@ -12288,7 +12278,7 @@
         <v>85</v>
       </c>
       <c r="T106" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="U106" t="n">
         <v>0.1</v>
@@ -12297,7 +12287,7 @@
         <v>85</v>
       </c>
       <c r="W106" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="X106" t="n">
         <v>0.1</v>
@@ -12306,7 +12296,7 @@
         <v>80</v>
       </c>
       <c r="Z106" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="AA106" t="n">
         <v>0.1</v>
@@ -12315,7 +12305,7 @@
         <v>80</v>
       </c>
       <c r="AC106" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="AD106" t="n">
         <v>0.1</v>
@@ -12324,15 +12314,15 @@
         <v>80</v>
       </c>
       <c r="AF106" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B107" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C107" t="n">
         <v>0.2</v>
@@ -12368,7 +12358,7 @@
         <v>70</v>
       </c>
       <c r="N107" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="O107" t="n">
         <v>-0.1</v>
@@ -12377,7 +12367,7 @@
         <v>70</v>
       </c>
       <c r="Q107" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="R107" t="n">
         <v>0.1</v>
@@ -12427,10 +12417,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B108" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C108" t="n">
         <v>0.1</v>
@@ -12466,7 +12456,7 @@
         <v>80</v>
       </c>
       <c r="N108" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="O108" t="n">
         <v>0</v>
@@ -12475,7 +12465,7 @@
         <v>80</v>
       </c>
       <c r="Q108" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="R108" t="n">
         <v>0</v>
@@ -12484,7 +12474,7 @@
         <v>65</v>
       </c>
       <c r="T108" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="U108" t="n">
         <v>0</v>
@@ -12493,7 +12483,7 @@
         <v>65</v>
       </c>
       <c r="W108" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="X108" t="n">
         <v>0</v>
@@ -12502,7 +12492,7 @@
         <v>70</v>
       </c>
       <c r="Z108" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="AA108" t="n">
         <v>0</v>
@@ -12511,7 +12501,7 @@
         <v>70</v>
       </c>
       <c r="AC108" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="AD108" t="n">
         <v>0</v>
@@ -12520,15 +12510,15 @@
         <v>70</v>
       </c>
       <c r="AF108" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B109" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -12537,7 +12527,7 @@
         <v>65</v>
       </c>
       <c r="E109" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F109" t="n">
         <v>0</v>
@@ -12546,7 +12536,7 @@
         <v>65</v>
       </c>
       <c r="H109" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -12555,7 +12545,7 @@
         <v>65</v>
       </c>
       <c r="K109" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="L109" t="n">
         <v>0</v>
@@ -12564,7 +12554,7 @@
         <v>85</v>
       </c>
       <c r="N109" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="O109" t="n">
         <v>0</v>
@@ -12573,7 +12563,7 @@
         <v>85</v>
       </c>
       <c r="Q109" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="R109" t="n">
         <v>0.1</v>
@@ -12582,7 +12572,7 @@
         <v>70</v>
       </c>
       <c r="T109" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="U109" t="n">
         <v>0.1</v>
@@ -12591,7 +12581,7 @@
         <v>70</v>
       </c>
       <c r="W109" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="X109" t="n">
         <v>0.1</v>
@@ -12600,7 +12590,7 @@
         <v>70</v>
       </c>
       <c r="Z109" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="AA109" t="n">
         <v>0.1</v>
@@ -12609,7 +12599,7 @@
         <v>70</v>
       </c>
       <c r="AC109" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="AD109" t="n">
         <v>0.1</v>
@@ -12618,15 +12608,15 @@
         <v>70</v>
       </c>
       <c r="AF109" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B110" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C110" t="n">
         <v>0.1</v>
@@ -12721,10 +12711,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B111" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C111" t="n">
         <v>0.1</v>
@@ -12733,7 +12723,7 @@
         <v>70</v>
       </c>
       <c r="E111" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="F111" t="n">
         <v>0.1</v>
@@ -12742,7 +12732,7 @@
         <v>70</v>
       </c>
       <c r="H111" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I111" t="n">
         <v>0.1</v>
@@ -12751,7 +12741,7 @@
         <v>70</v>
       </c>
       <c r="K111" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="L111" t="n">
         <v>0.2</v>
@@ -12819,10 +12809,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B112" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C112" t="n">
         <v>0.2</v>
@@ -12831,7 +12821,7 @@
         <v>85</v>
       </c>
       <c r="E112" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="F112" t="n">
         <v>0.2</v>
@@ -12840,7 +12830,7 @@
         <v>85</v>
       </c>
       <c r="H112" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="I112" t="n">
         <v>0.2</v>
@@ -12849,7 +12839,7 @@
         <v>85</v>
       </c>
       <c r="K112" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="L112" t="n">
         <v>0.2</v>
@@ -12858,7 +12848,7 @@
         <v>85</v>
       </c>
       <c r="N112" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="O112" t="n">
         <v>0.2</v>
@@ -12867,7 +12857,7 @@
         <v>85</v>
       </c>
       <c r="Q112" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="R112" t="n">
         <v>0.2</v>
@@ -12876,7 +12866,7 @@
         <v>85</v>
       </c>
       <c r="T112" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="U112" t="n">
         <v>0.2</v>
@@ -12885,7 +12875,7 @@
         <v>85</v>
       </c>
       <c r="W112" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="X112" t="n">
         <v>0.2</v>
@@ -12917,10 +12907,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B113" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C113" t="n">
         <v>0.3</v>
@@ -13015,10 +13005,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B114" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C114" t="n">
         <v>0.2</v>
@@ -13090,7 +13080,7 @@
         <v>70</v>
       </c>
       <c r="Z114" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="AA114" t="n">
         <v>0.1</v>
@@ -13099,7 +13089,7 @@
         <v>70</v>
       </c>
       <c r="AC114" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="AD114" t="n">
         <v>0.1</v>
@@ -13108,15 +13098,15 @@
         <v>70</v>
       </c>
       <c r="AF114" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B115" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C115" t="n">
         <v>0.1</v>
@@ -13188,7 +13178,7 @@
         <v>75</v>
       </c>
       <c r="Z115" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="AA115" t="n">
         <v>0.1</v>
@@ -13197,7 +13187,7 @@
         <v>75</v>
       </c>
       <c r="AC115" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="AD115" t="n">
         <v>0.1</v>
@@ -13206,15 +13196,15 @@
         <v>75</v>
       </c>
       <c r="AF115" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B116" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
@@ -13309,10 +13299,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B117" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C117" t="n">
         <v>0.2</v>
@@ -13348,7 +13338,7 @@
         <v>70</v>
       </c>
       <c r="N117" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="O117" t="n">
         <v>0.1</v>
@@ -13357,7 +13347,7 @@
         <v>70</v>
       </c>
       <c r="Q117" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="R117" t="n">
         <v>0.1</v>
@@ -13407,10 +13397,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B118" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C118" t="n">
         <v>0.2</v>
@@ -13482,7 +13472,7 @@
         <v>85</v>
       </c>
       <c r="Z118" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="AA118" t="n">
         <v>0.1</v>
@@ -13491,7 +13481,7 @@
         <v>85</v>
       </c>
       <c r="AC118" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="AD118" t="n">
         <v>0.1</v>
@@ -13500,15 +13490,15 @@
         <v>85</v>
       </c>
       <c r="AF118" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B119" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C119" t="n">
         <v>0.1</v>
@@ -13544,7 +13534,7 @@
         <v>70</v>
       </c>
       <c r="N119" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="O119" t="n">
         <v>0.1</v>
@@ -13553,7 +13543,7 @@
         <v>70</v>
       </c>
       <c r="Q119" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="R119" t="n">
         <v>0</v>
@@ -13562,7 +13552,7 @@
         <v>65</v>
       </c>
       <c r="T119" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="U119" t="n">
         <v>0</v>
@@ -13571,7 +13561,7 @@
         <v>65</v>
       </c>
       <c r="W119" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="X119" t="n">
         <v>0</v>
@@ -13580,7 +13570,7 @@
         <v>65</v>
       </c>
       <c r="Z119" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="AA119" t="n">
         <v>0</v>
@@ -13589,7 +13579,7 @@
         <v>65</v>
       </c>
       <c r="AC119" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="AD119" t="n">
         <v>0</v>
@@ -13598,15 +13588,15 @@
         <v>65</v>
       </c>
       <c r="AF119" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B120" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C120" t="n">
         <v>0.1</v>
@@ -13615,7 +13605,7 @@
         <v>70</v>
       </c>
       <c r="E120" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="F120" t="n">
         <v>0.1</v>
@@ -13624,7 +13614,7 @@
         <v>70</v>
       </c>
       <c r="H120" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I120" t="n">
         <v>0.1</v>
@@ -13633,7 +13623,7 @@
         <v>70</v>
       </c>
       <c r="K120" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="L120" t="n">
         <v>0.1</v>
@@ -13642,7 +13632,7 @@
         <v>70</v>
       </c>
       <c r="N120" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="O120" t="n">
         <v>0.1</v>
@@ -13651,7 +13641,7 @@
         <v>70</v>
       </c>
       <c r="Q120" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="R120" t="n">
         <v>0.1</v>
@@ -13660,7 +13650,7 @@
         <v>80</v>
       </c>
       <c r="T120" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="U120" t="n">
         <v>0.1</v>
@@ -13669,7 +13659,7 @@
         <v>80</v>
       </c>
       <c r="W120" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="X120" t="n">
         <v>0.1</v>
@@ -13678,7 +13668,7 @@
         <v>85</v>
       </c>
       <c r="Z120" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="AA120" t="n">
         <v>0.1</v>
@@ -13687,7 +13677,7 @@
         <v>85</v>
       </c>
       <c r="AC120" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="AD120" t="n">
         <v>0.1</v>
@@ -13696,15 +13686,15 @@
         <v>85</v>
       </c>
       <c r="AF120" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B121" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C121" t="n">
         <v>0.2</v>
@@ -13758,7 +13748,7 @@
         <v>70</v>
       </c>
       <c r="T121" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="U121" t="n">
         <v>0.2</v>
@@ -13799,10 +13789,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B122" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C122" t="n">
         <v>0.2</v>
@@ -13856,7 +13846,7 @@
         <v>70</v>
       </c>
       <c r="T122" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="U122" t="n">
         <v>0.1</v>
@@ -13865,7 +13855,7 @@
         <v>70</v>
       </c>
       <c r="W122" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="X122" t="n">
         <v>0.2</v>
@@ -13897,10 +13887,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B123" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C123" t="n">
         <v>0.2</v>
@@ -13995,10 +13985,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B124" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C124" t="n">
         <v>0.2</v>
@@ -14034,7 +14024,7 @@
         <v>85</v>
       </c>
       <c r="N124" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="O124" t="n">
         <v>0.1</v>
@@ -14043,7 +14033,7 @@
         <v>85</v>
       </c>
       <c r="Q124" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="R124" t="n">
         <v>0.2</v>
@@ -14093,10 +14083,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B125" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C125" t="n">
         <v>0.2</v>
@@ -14191,10 +14181,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B126" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C126" t="n">
         <v>0.2</v>
@@ -14230,7 +14220,7 @@
         <v>85</v>
       </c>
       <c r="N126" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="O126" t="n">
         <v>0.2</v>
@@ -14239,7 +14229,7 @@
         <v>85</v>
       </c>
       <c r="Q126" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="R126" t="n">
         <v>0.2</v>
@@ -14289,10 +14279,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B127" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C127" t="n">
         <v>0.2</v>
@@ -14301,7 +14291,7 @@
         <v>85</v>
       </c>
       <c r="E127" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="F127" t="n">
         <v>0.2</v>
@@ -14310,7 +14300,7 @@
         <v>85</v>
       </c>
       <c r="H127" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="I127" t="n">
         <v>0.2</v>
@@ -14319,7 +14309,7 @@
         <v>85</v>
       </c>
       <c r="K127" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="L127" t="n">
         <v>0.2</v>
@@ -14328,7 +14318,7 @@
         <v>85</v>
       </c>
       <c r="N127" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="O127" t="n">
         <v>0.2</v>
@@ -14337,7 +14327,7 @@
         <v>85</v>
       </c>
       <c r="Q127" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="R127" t="n">
         <v>0.2</v>
@@ -14364,7 +14354,7 @@
         <v>85</v>
       </c>
       <c r="Z127" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="AA127" t="n">
         <v>0.2</v>
@@ -14373,7 +14363,7 @@
         <v>85</v>
       </c>
       <c r="AC127" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="AD127" t="n">
         <v>0.2</v>
@@ -14382,15 +14372,15 @@
         <v>85</v>
       </c>
       <c r="AF127" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B128" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C128" t="n">
         <v>0.3</v>
@@ -14485,10 +14475,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B129" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C129" t="n">
         <v>0.2</v>
@@ -14497,7 +14487,7 @@
         <v>85</v>
       </c>
       <c r="E129" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="F129" t="n">
         <v>0.2</v>
@@ -14506,7 +14496,7 @@
         <v>85</v>
       </c>
       <c r="H129" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="I129" t="n">
         <v>0.2</v>
@@ -14515,7 +14505,7 @@
         <v>85</v>
       </c>
       <c r="K129" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="L129" t="n">
         <v>0.2</v>
@@ -14538,7 +14528,7 @@
       <c r="R129"/>
       <c r="S129"/>
       <c r="T129" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="U129" t="n">
         <v>0.3</v>
@@ -14579,10 +14569,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B130" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C130" t="n">
         <v>0.2</v>
@@ -14591,7 +14581,7 @@
         <v>85</v>
       </c>
       <c r="E130" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="F130" t="n">
         <v>0.2</v>
@@ -14600,7 +14590,7 @@
         <v>85</v>
       </c>
       <c r="H130" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="I130" t="n">
         <v>0.2</v>
@@ -14609,7 +14599,7 @@
         <v>85</v>
       </c>
       <c r="K130" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="L130" t="n">
         <v>0.2</v>
@@ -14618,7 +14608,7 @@
         <v>85</v>
       </c>
       <c r="N130" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="O130" t="n">
         <v>0.2</v>
@@ -14627,7 +14617,7 @@
         <v>85</v>
       </c>
       <c r="Q130" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="R130" t="n">
         <v>0.1</v>
@@ -14636,7 +14626,7 @@
         <v>75</v>
       </c>
       <c r="T130" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="U130" t="n">
         <v>0.1</v>
@@ -14645,7 +14635,7 @@
         <v>75</v>
       </c>
       <c r="W130" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="X130" t="n">
         <v>0.2</v>
@@ -14677,10 +14667,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B131" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C131" t="n">
         <v>0.2</v>
@@ -14752,7 +14742,7 @@
         <v>75</v>
       </c>
       <c r="Z131" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="AA131" t="n">
         <v>0.1</v>
@@ -14761,7 +14751,7 @@
         <v>75</v>
       </c>
       <c r="AC131" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="AD131" t="n">
         <v>0.1</v>
@@ -14770,7 +14760,7 @@
         <v>75</v>
       </c>
       <c r="AF131" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
